--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2851827.0255396</v>
+        <v>2927356.695204406</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>66.45649849490196</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.381842011902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888678</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120.4120358099645</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>46.20202353054947</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913977</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>39.37164904375792</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>332.0373187733341</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>295.1260026716606</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>17.07918657556506</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.17579562641276</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.72144273158528</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1576,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>187.1605068196044</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896905</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>67.08991894886655</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>113.6781710760784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>87.68921229121347</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>199.3222459365289</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2290,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>118.8406152163583</v>
       </c>
       <c r="X22" t="n">
-        <v>117.7873989665813</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.52416382797675</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>176.5024369657223</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>143.0817761284758</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.18921109332571</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>88.87365875266134</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.9747308388686</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>29.69962295790973</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>36.2640610099433</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>92.83103086672379</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.1723819826925</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>15.93285474807279</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465729</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>13.18186169702315</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>144.2986057589457</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>97.92416414373135</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>26.97444673954905</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5329038551746658</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.22335213854</v>
+        <v>1245.03963542969</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>1245.03963542969</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1245.03963542969</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>859.2513828314459</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>448.2654780418383</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1245.03963542969</v>
       </c>
       <c r="Y2" t="n">
-        <v>1310.22335213854</v>
+        <v>1245.03963542969</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,13 +4445,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1189.50268270914</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>820.540165768728</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>820.540165768728</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>434.7519131704838</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>427.8064124212803</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X5" t="n">
-        <v>1576.102522773261</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1576.102522773261</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1914.44116270037</v>
+        <v>1507.089911220685</v>
       </c>
       <c r="C8" t="n">
-        <v>1545.478645759958</v>
+        <v>1507.089911220685</v>
       </c>
       <c r="D8" t="n">
-        <v>1545.478645759958</v>
+        <v>1148.824212613934</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>763.0359600156899</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>352.0500552260823</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>1914.44116270037</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.44116270037</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.8510101265796</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>98.56499760461978</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>98.56499760461978</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265796</v>
+        <v>245.4549451025301</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.8510101265796</v>
+        <v>245.4549451025301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.8045051785811</v>
+        <v>730.715634940067</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506741</v>
+        <v>730.715634940067</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>580.5989955277313</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947115</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T13" t="n">
-        <v>998.8701400457815</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="U13" t="n">
-        <v>998.8701400457815</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="V13" t="n">
-        <v>998.8701400457815</v>
+        <v>1133.156678913837</v>
       </c>
       <c r="W13" t="n">
-        <v>709.4529700088208</v>
+        <v>1133.156678913837</v>
       </c>
       <c r="X13" t="n">
-        <v>709.4529700088208</v>
+        <v>1133.156678913837</v>
       </c>
       <c r="Y13" t="n">
-        <v>709.4529700088208</v>
+        <v>912.3640997703068</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>164.9846863581309</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>164.9846863581309</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>164.9846863581309</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>416.5712828402495</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>416.5712828402495</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.5712828402495</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764785</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3870.054822428818</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4539.518583731478</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>333.7051469529956</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>333.7051469529956</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>333.7051469529956</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>185.7920533706025</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>185.7920533706025</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>185.7920533706025</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>185.7920533706025</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035277</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247828</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247828</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247828</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247828</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="X19" t="n">
-        <v>736.1461909267655</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y19" t="n">
-        <v>515.3536117832354</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5747,31 +5749,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2649.889045452864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>2896.654173359328</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3665.022319751789</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>3994.884947415822</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4350.092662819069</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4555.115143601279</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3739.626168222635</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C22" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294728</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294728</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.149147719352</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.02050893291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>4148.02050893291</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>3858.603338895949</v>
+        <v>924.2707467964987</v>
       </c>
       <c r="X22" t="n">
-        <v>3739.626168222635</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="Y22" t="n">
-        <v>3739.626168222635</v>
+        <v>696.2811958984813</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5977,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6002,22 +6004,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1409.497923256916</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1409.497923256916</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1185.712508046422</v>
       </c>
       <c r="U25" t="n">
-        <v>1120.710970609089</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="V25" t="n">
-        <v>1120.710970609089</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.710970609089</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X25" t="n">
-        <v>892.7214197110717</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.7214197110717</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6239,22 +6241,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3922.735262851337</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="C28" t="n">
-        <v>3753.79907992343</v>
+        <v>3948.185253009609</v>
       </c>
       <c r="D28" t="n">
-        <v>3603.682440511095</v>
+        <v>3798.068613597274</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>3798.068613597274</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>3651.178666099363</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>3651.178666099363</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>3500.760657647307</v>
       </c>
       <c r="I28" t="n">
         <v>3459.155393916675</v>
@@ -6415,19 +6417,19 @@
         <v>4660.934562929845</v>
       </c>
       <c r="U28" t="n">
-        <v>4660.934562929845</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V28" t="n">
-        <v>4660.934562929845</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="W28" t="n">
-        <v>4371.517392892884</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="X28" t="n">
-        <v>4143.527841994867</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="Y28" t="n">
-        <v>3922.735262851337</v>
+        <v>4117.121435937516</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,13 +6496,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>190.6805289025651</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>339.750213104625</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4033.668348055211</v>
+        <v>595.5296422260202</v>
       </c>
       <c r="C31" t="n">
-        <v>4033.668348055211</v>
+        <v>595.5296422260202</v>
       </c>
       <c r="D31" t="n">
-        <v>4033.668348055211</v>
+        <v>445.4130028136844</v>
       </c>
       <c r="E31" t="n">
-        <v>3885.755254472818</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>3738.865306974908</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>4725.526562065941</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W31" t="n">
-        <v>4436.10939202898</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X31" t="n">
-        <v>4436.10939202898</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y31" t="n">
-        <v>4215.31681288545</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,19 +6727,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3079.144181652285</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3883.555759916436</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4553.019521219096</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4758.042002001305</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3919.742426784374</v>
+        <v>3904.376443449037</v>
       </c>
       <c r="C34" t="n">
-        <v>3750.806243856468</v>
+        <v>3904.376443449037</v>
       </c>
       <c r="D34" t="n">
-        <v>3600.689604444132</v>
+        <v>3904.376443449037</v>
       </c>
       <c r="E34" t="n">
-        <v>3600.689604444132</v>
+        <v>3756.463349866644</v>
       </c>
       <c r="F34" t="n">
-        <v>3600.689604444132</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G34" t="n">
-        <v>3600.689604444132</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
         <v>4411.546387431057</v>
@@ -6883,25 +6885,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.149147719352</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U34" t="n">
-        <v>4437.149147719352</v>
+        <v>4824.224208357785</v>
       </c>
       <c r="V34" t="n">
-        <v>4437.149147719352</v>
+        <v>4824.224208357785</v>
       </c>
       <c r="W34" t="n">
-        <v>4147.731977682392</v>
+        <v>4534.807038320824</v>
       </c>
       <c r="X34" t="n">
-        <v>3919.742426784374</v>
+        <v>4306.817487422807</v>
       </c>
       <c r="Y34" t="n">
-        <v>3919.742426784374</v>
+        <v>4086.024908279277</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,64 +6925,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>713.5778697504956</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C37" t="n">
-        <v>544.6416868225887</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1405.147552510707</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1405.147552510707</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1405.147552510707</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1116.018913724265</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>1116.018913724265</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>1116.018913724265</v>
+        <v>761.3093662244439</v>
       </c>
       <c r="X37" t="n">
-        <v>1116.018913724265</v>
+        <v>761.3093662244439</v>
       </c>
       <c r="Y37" t="n">
-        <v>895.2263345807353</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7196,7 +7198,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>2786.879505108312</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>3033.644633014776</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>3340.964766294738</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N39" t="n">
-        <v>3973.880983602626</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>4253.421048821323</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>282.2470670630138</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="C40" t="n">
-        <v>113.3108841351069</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>520.3977966879669</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>372.48470310557</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471194</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141522</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W40" t="n">
-        <v>731.0291971045613</v>
+        <v>898.50398699832</v>
       </c>
       <c r="X40" t="n">
-        <v>503.0396462065439</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="Y40" t="n">
-        <v>282.2470670630138</v>
+        <v>670.5144361003026</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,22 +7399,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7430,10 +7432,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
@@ -7445,7 +7447,7 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851617</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>638.369141907976</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>712.4440896858637</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C43" t="n">
-        <v>543.5079067579568</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D43" t="n">
-        <v>393.391267345621</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>393.391267345621</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
         <v>247.6350999123426</v>
@@ -7561,16 +7563,16 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.921157035281</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293938</v>
+        <v>687.168909361639</v>
       </c>
       <c r="W43" t="n">
-        <v>933.2366688293938</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="X43" t="n">
-        <v>933.2366688293938</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y43" t="n">
-        <v>712.4440896858637</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7643,10 +7645,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216475</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>677.4616523829102</v>
+        <v>124.4640073588203</v>
       </c>
       <c r="C46" t="n">
-        <v>677.4616523829102</v>
+        <v>124.4640073588203</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>124.4640073588203</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
         <v>507.4972331799365</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.382870312882</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>898.2542315264403</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>898.2542315264403</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W46" t="n">
-        <v>898.2542315264403</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X46" t="n">
-        <v>898.2542315264403</v>
+        <v>526.9050513325901</v>
       </c>
       <c r="Y46" t="n">
-        <v>677.4616523829102</v>
+        <v>306.11247218906</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52.49733361305141</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>113.6026921294538</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>29.47535963978072</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>76.43196988338394</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>230.7151863772031</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>52.49733361305211</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.100663089358036</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>52.49733361305204</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>306.1147370139952</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>104.8749102765742</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445216</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714816</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M45" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445216</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>93.71251991498389</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>34.38705423878483</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>99.40364951451103</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>172.8448272605125</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>22.7300331730585</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>52.8153973872991</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>167.6823831202327</v>
       </c>
       <c r="X22" t="n">
-        <v>107.9222564224558</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>21.44018857581604</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>109.7349154328551</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.352186518093418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>69.23003437094627</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>57.56030389390783</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24895,13 +24897,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>118.1629124849594</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>119.2142054096264</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>249.973291388634</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.13332153706898</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>6.350616353898488</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>132.6826182701396</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>132.2391863259081</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>1.12244226398559</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>154.2134791800967</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4595159070201</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0146572032146</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769635.6044539643</v>
+        <v>769635.604453964</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="H2" t="n">
         <v>606095.0425934484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934487</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="J2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="K2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934485</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.04179939474062e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007517</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007431</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007442</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007492</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007398</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007417</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007482</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184436.634349055</v>
+        <v>-184436.6343490552</v>
       </c>
       <c r="C6" t="n">
         <v>405531.2448654894</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654894</v>
+        <v>405531.2448654892</v>
       </c>
       <c r="E6" t="n">
-        <v>-18969.05148817222</v>
+        <v>-18969.0514881717</v>
       </c>
       <c r="F6" t="n">
-        <v>506190.9849887246</v>
+        <v>506190.9849887245</v>
       </c>
       <c r="G6" t="n">
+        <v>506190.9849887245</v>
+      </c>
+      <c r="H6" t="n">
         <v>506190.9849887243</v>
-      </c>
-      <c r="H6" t="n">
-        <v>506190.9849887246</v>
       </c>
       <c r="I6" t="n">
         <v>506190.9849887246</v>
       </c>
       <c r="J6" t="n">
-        <v>329767.7657961315</v>
+        <v>329767.7657961318</v>
       </c>
       <c r="K6" t="n">
         <v>506190.9849887245</v>
       </c>
       <c r="L6" t="n">
-        <v>506190.9849887245</v>
+        <v>506190.9849887243</v>
       </c>
       <c r="M6" t="n">
-        <v>371389.9697548872</v>
+        <v>371389.9697548873</v>
       </c>
       <c r="N6" t="n">
-        <v>506190.9849887244</v>
+        <v>506190.9849887243</v>
       </c>
       <c r="O6" t="n">
         <v>506190.9849887244</v>
@@ -26744,34 +26746,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541004</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26823,13 +26825,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>347.327671525893</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.85609664415159</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>126.0489046421614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>367.5821464902455</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.95375469339484</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>186.3380063452792</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>49.89305129892773</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>118.6581673491344</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,19 +27903,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>150.1676345230628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>111.9950932153824</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28278,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30387,7 +30389,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-3.750438840714403e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-9.050034285192413e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-5.329851502673246e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33906,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33927,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33982,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34001,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34055,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34067,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34079,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>385.6919070110645</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789682</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>446.7972655274668</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>236.5687745713055</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>358.7956721244922</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>541.1395634276695</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.40751256795882</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.1136958744322</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>385.691907011065</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37554,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>639.3093104120081</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37707,7 +37709,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>354.1326152325985</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37877,7 +37879,7 @@
         <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M45" t="n">
-        <v>487.1420318003109</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2927356.695204406</v>
+        <v>2920339.680312695</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>240.9592984209434</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>66.45649849490196</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>120.4120358099645</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>270.7773459850742</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>384.7252927416135</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>43.31785343913977</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>38.11761032550674</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>295.1260026716606</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>34.50046002839201</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.17579562641276</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>52.72144273158528</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>97.57844865856715</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>67.08991894886655</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>169.1477376595839</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>199.3222459365289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>118.8406152163583</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.52416382797675</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.18921109332571</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>88.87365875266134</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>36.2640610099433</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>280.1723819826925</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3556,19 +3556,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465729</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>13.18186169702315</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3714,19 +3714,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>97.92416414373135</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>26.97444673954905</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.03963542969</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1245.03963542969</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="D2" t="n">
-        <v>1245.03963542969</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="E2" t="n">
-        <v>859.2513828314459</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>448.2654780418383</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960884</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.03963542969</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1245.03963542969</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4445,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
         <v>864.6405432696254</v>
@@ -4555,31 +4555,31 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464703</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.089911220685</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C8" t="n">
-        <v>1507.089911220685</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D8" t="n">
-        <v>1148.824212613934</v>
+        <v>899.4894927932537</v>
       </c>
       <c r="E8" t="n">
-        <v>763.0359600156899</v>
+        <v>513.7012401950094</v>
       </c>
       <c r="F8" t="n">
-        <v>352.0500552260823</v>
+        <v>102.7153354054018</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>88.79193134399274</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1893.689751284806</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1893.689751284806</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.4549451025301</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>245.4549451025301</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>245.4549451025301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>245.4549451025301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>98.56499760461978</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>98.56499760461978</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.4549451025301</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>730.715634940067</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>730.715634940067</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>580.5989955277313</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028583</v>
@@ -5202,49 +5202,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947115</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119724</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119724</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119724</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119724</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913837</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W13" t="n">
-        <v>1133.156678913837</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.156678913837</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y13" t="n">
-        <v>912.3640997703068</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5393,7 +5393,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>315.1013257704666</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>164.9846863581309</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>164.9846863581309</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>164.9846863581309</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5445,13 +5445,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635867</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>584.7466045204288</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>584.7466045204288</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5749,25 +5749,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>924.2707467964987</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1409.497923256916</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1409.497923256916</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1185.712508046422</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>896.5838692599799</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>896.5838692599799</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4117.121435937516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3948.185253009609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3798.068613597274</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3798.068613597274</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3651.178666099363</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3651.178666099363</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3500.760657647307</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143403</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4117.121435937516</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4117.121435937516</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4117.121435937516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4117.121435937516</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6487,28 +6487,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>445.4130028136844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1044.311772267568</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>816.3222213695503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3904.376443449037</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>3904.376443449037</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>3904.376443449037</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>3756.463349866644</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014293</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4824.224208357785</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4824.224208357785</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4534.807038320824</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>4306.817487422807</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>4086.024908279277</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,10 +6958,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>761.3093662244439</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>761.3093662244439</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>540.5167870809138</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7165,19 +7165,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>670.5144361003026</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>670.5144361003026</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>520.3977966879669</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>372.48470310557</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
         <v>359.1696912903951</v>
@@ -7329,19 +7329,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.921157035281</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.921157035281</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.921157035281</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>898.50398699832</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>670.5144361003026</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>670.5144361003026</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7402,61 +7402,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>687.168909361639</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>397.7517393246783</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.4640073588203</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>124.4640073588203</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>124.4640073588203</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V46" t="n">
-        <v>1044.311772267568</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W46" t="n">
-        <v>754.8946022306075</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X46" t="n">
-        <v>526.9050513325901</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>306.11247218906</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498458</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231143</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>93.71251991498389</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>154.5591946652609</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.40364951451103</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>82.98990566424408</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>52.8153973872991</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>167.6823831202327</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.44018857581604</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>69.23003437094627</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>57.56030389390783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>249.973291388634</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>6.350616353898488</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>132.2391863259081</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>154.2134791800967</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>119.4595159070201</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>64.30500338171984</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="H2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934485</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>3.04179939474062e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007488</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="N4" t="n">
-        <v>7916.731656007398</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007417</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007483</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184436.6343490552</v>
+        <v>-184436.6343490549</v>
       </c>
       <c r="C6" t="n">
-        <v>405531.2448654894</v>
+        <v>405531.2448654895</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654892</v>
+        <v>405531.2448654895</v>
       </c>
       <c r="E6" t="n">
-        <v>-18969.0514881717</v>
+        <v>-19943.64274789322</v>
       </c>
       <c r="F6" t="n">
-        <v>506190.9849887245</v>
+        <v>505216.3937290026</v>
       </c>
       <c r="G6" t="n">
-        <v>506190.9849887245</v>
+        <v>505216.3937290026</v>
       </c>
       <c r="H6" t="n">
-        <v>506190.9849887243</v>
+        <v>505216.3937290029</v>
       </c>
       <c r="I6" t="n">
-        <v>506190.9849887246</v>
+        <v>505216.3937290024</v>
       </c>
       <c r="J6" t="n">
-        <v>329767.7657961318</v>
+        <v>328793.1745364098</v>
       </c>
       <c r="K6" t="n">
-        <v>506190.9849887245</v>
+        <v>505216.3937290027</v>
       </c>
       <c r="L6" t="n">
-        <v>506190.9849887243</v>
+        <v>505216.3937290028</v>
       </c>
       <c r="M6" t="n">
-        <v>371389.9697548873</v>
+        <v>370415.3784951655</v>
       </c>
       <c r="N6" t="n">
-        <v>506190.9849887243</v>
+        <v>505216.3937290026</v>
       </c>
       <c r="O6" t="n">
-        <v>506190.9849887244</v>
+        <v>505216.3937290028</v>
       </c>
       <c r="P6" t="n">
-        <v>506190.9849887244</v>
+        <v>505216.3937290028</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="N3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26825,13 +26825,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>140.9710716513183</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>347.327671525893</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>46.83478528866331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>75.30176537689272</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>98.95375469339484</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.5126459144401</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>187.5920450635304</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>118.6581673491344</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>289.4223127359651</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27906,16 +27906,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>111.9950932153824</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30389,7 +30389,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-3.750438840714403e-12</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-9.050034285192413e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-5.329851502673246e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789682</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058701</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110537</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
         <v>59.8253897034981</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
